--- a/Questions/games.xlsx
+++ b/Questions/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DAE8723-6570-D246-B098-27A442879F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2289F9F-4AB4-4742-BCDD-4A3B2DD0C5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{2A51758C-EC9E-5E46-AA9E-8150C0DFF927}"/>
   </bookViews>
@@ -30,6 +30,263 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerKeyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이플스토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카트라이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레이지아케이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두의마블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리니지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의나라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테일즈위버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테일즈런너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카운터스트라이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라테일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법학교아르피엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르피엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채부락리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿵야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타크래프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤일로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버워치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프린세스커넥트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리코네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이돌마스터신데렐레걸즈스타라이트스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이마스 신데마스 아이돌마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니어오토마타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젤다의전설야생의숨결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀러오세요동물의숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동숲 동물의숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젤다의전설 젤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이널판타지14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파판 파이널판타지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서든어택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드체이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전앤파이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피파온라인14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마비노기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은사막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐플레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포켓몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포켓몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴가이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언더테일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끄투온라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끄투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블레이드앤소울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블소 블앤소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이트그랜드오더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페그오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,12 +648,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938331E-B2C5-F84A-A762-83B1B1DD2C03}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questions/games.xlsx
+++ b/Questions/games.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2289F9F-4AB4-4742-BCDD-4A3B2DD0C5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBB450-4C2D-C74B-B416-4CF04357AED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{2A51758C-EC9E-5E46-AA9E-8150C0DFF927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,14 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마법학교아르피엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아르피엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>야채부락리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,14 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이돌마스터신데렐레걸즈스타라이트스테이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이마스 신데마스 아이돌마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>니어오토마타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피파온라인14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피파</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,14 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포켓몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포켓몬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>폴가이즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,6 +256,189 @@
   </si>
   <si>
     <t>페그오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겟엠프드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겟엠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2w6WQS-CMbs</t>
+  </si>
+  <si>
+    <t>S4rWGAdlBXE</t>
+  </si>
+  <si>
+    <t>sOQsLcJObR0</t>
+  </si>
+  <si>
+    <t>클로저스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QPRo8kvvXN0</t>
+  </si>
+  <si>
+    <t>cA8bxgPAn-s</t>
+  </si>
+  <si>
+    <t>eomHQg4YIb8</t>
+  </si>
+  <si>
+    <t>pDJk7Lt0wxE</t>
+  </si>
+  <si>
+    <t>2Om4yaj-Xgw</t>
+  </si>
+  <si>
+    <t>MOzZe_yVIcc</t>
+  </si>
+  <si>
+    <t>uP9VLg-zXCk</t>
+  </si>
+  <si>
+    <t>G6E1x4LPpJQ</t>
+  </si>
+  <si>
+    <t>j-KaIWW55Ls</t>
+  </si>
+  <si>
+    <t>pFkNIOsspg0</t>
+  </si>
+  <si>
+    <t>SyxmlJHdInc</t>
+  </si>
+  <si>
+    <t>로스트사가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ttq64a-afH8</t>
+  </si>
+  <si>
+    <t>마법학교아르피아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르피아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yjjs5kzvD5c</t>
+  </si>
+  <si>
+    <t>-yGWB78N2Mw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0jXTBAGv9ZQ</t>
+  </si>
+  <si>
+    <t>HtwJvDaUCcc</t>
+  </si>
+  <si>
+    <t>9l-VZC3UGXA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a9c0tte-gFI</t>
+  </si>
+  <si>
+    <t>아이돌마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이마스 아이돌마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2lSNjkWIS0</t>
+  </si>
+  <si>
+    <t>WjJuEMEES-A</t>
+  </si>
+  <si>
+    <t>rFoS-625ljY</t>
+  </si>
+  <si>
+    <t>btoPJnW2KX8</t>
+  </si>
+  <si>
+    <t>izfFPpO7-Zo</t>
+  </si>
+  <si>
+    <t>J-g7X_1Ay0Y</t>
+  </si>
+  <si>
+    <t>WgnL91uR56A</t>
+  </si>
+  <si>
+    <t>JiNShjReGPk</t>
+  </si>
+  <si>
+    <t>eYcZVVI-9ck</t>
+  </si>
+  <si>
+    <t>포켓몬스터레드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포켓몬 포켓몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j7mZA-_oWfw</t>
+  </si>
+  <si>
+    <t>FbpEGp9s9kg</t>
+  </si>
+  <si>
+    <t>어몽어스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s7RRgF5Ve_E</t>
+  </si>
+  <si>
+    <t>Q2GrY-J4zq4</t>
+  </si>
+  <si>
+    <t>i2YfwfuhWX0</t>
+  </si>
+  <si>
+    <t>CMqdZXjdt5s</t>
+  </si>
+  <si>
+    <t>슈퍼마리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리오 슈퍼마리오브라더스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2Q4Qpv5NTw</t>
+  </si>
+  <si>
+    <t>OJPtMTthR7E</t>
+  </si>
+  <si>
+    <t>d9q7OUmMY3E</t>
+  </si>
+  <si>
+    <t>EZ2DJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지투디제이 이지투 ez2dj 이지투온</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,8 +485,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938331E-B2C5-F84A-A762-83B1B1DD2C03}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -661,267 +819,656 @@
     <col min="4" max="4" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="C2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="C6" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="C9" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="C11" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" t="s">
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Questions/games.xlsx
+++ b/Questions/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBB450-4C2D-C74B-B416-4CF04357AED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC5DA71-8BF2-B34B-A2A5-84791694193F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{2A51758C-EC9E-5E46-AA9E-8150C0DFF927}"/>
+    <workbookView xWindow="28800" yWindow="3100" windowWidth="19200" windowHeight="14900" xr2:uid="{2A51758C-EC9E-5E46-AA9E-8150C0DFF927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,14 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>놀러오세요동물의숲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동숲 동물의숲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>젤다의전설 젤다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마비노기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,17 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>겟엠프드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>겟엠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2w6WQS-CMbs</t>
-  </si>
-  <si>
     <t>S4rWGAdlBXE</t>
   </si>
   <si>
@@ -440,6 +417,218 @@
   <si>
     <t>이지투디제이 이지투 ez2dj 이지투온</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모여봐요동물의숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동숲 동물의숲 모동숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마영전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마비노기영웅전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어몽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마인크래프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리샤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겟앰프드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겟앰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알투비트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디제이맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vUm7PMsyaZ8</t>
+  </si>
+  <si>
+    <t>커비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별의커비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구르팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f6fmaSvGUec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2JYnCidm11o</t>
+  </si>
+  <si>
+    <t>철권7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dx8uRaIsWI0</t>
+  </si>
+  <si>
+    <t>rscBkUxCX-A</t>
+  </si>
+  <si>
+    <t>디아블로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하스스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XheJnmLAwhk</t>
+  </si>
+  <si>
+    <t>1ERvK2RCqBY</t>
+  </si>
+  <si>
+    <t>_L9eWmZVACI</t>
+  </si>
+  <si>
+    <t>tjZyL06s7qY</t>
+  </si>
+  <si>
+    <t>워크래프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9aCGd7oGrEY</t>
+  </si>
+  <si>
+    <t>hJ59KzX4vJI</t>
+  </si>
+  <si>
+    <t>ko1FBOvtbLs</t>
+  </si>
+  <si>
+    <t>qq-RGFyaq0U</t>
+  </si>
+  <si>
+    <t>문명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4lDpvTEcv4</t>
+  </si>
+  <si>
+    <t>디맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IJiHDmyhE1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이퍼즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cgiuY-SfraU</t>
+  </si>
+  <si>
+    <t>배틀그라운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배그 플레이어언노운배틀그라운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvA1bEsBNYg</t>
+  </si>
+  <si>
+    <t>용과같이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8lzzkSJz3Po</t>
+  </si>
+  <si>
+    <t>스카이림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0KBCkCRfSao</t>
+  </si>
+  <si>
+    <t>소닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소닉더헤지옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G-i8HYi1QH0</t>
+  </si>
+  <si>
+    <t>스타듀밸리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_DaayzaOOA</t>
+  </si>
+  <si>
+    <t>투더문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9QfPDmzpC2Q</t>
   </si>
 </sst>
 </file>
@@ -806,22 +995,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938331E-B2C5-F84A-A762-83B1B1DD2C03}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -841,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -858,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -875,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -892,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -909,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -923,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -937,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -951,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -968,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -985,16 +1175,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1002,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1016,16 +1206,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1033,7 +1223,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1050,7 +1240,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1067,7 +1257,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>61</v>
@@ -1081,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1098,7 +1288,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>61</v>
@@ -1115,16 +1305,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1132,7 +1322,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1149,7 +1339,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1158,7 +1348,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1166,16 +1356,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1183,16 +1373,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1200,16 +1390,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1217,16 +1407,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1234,16 +1424,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1251,13 +1441,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1265,16 +1458,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1282,13 +1475,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1296,16 +1489,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1313,13 +1506,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1327,13 +1520,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1341,16 +1534,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1358,16 +1551,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1375,16 +1568,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1392,16 +1585,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1409,13 +1602,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1423,13 +1616,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1437,16 +1630,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1454,16 +1647,337 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
         <v>108</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
         <v>109</v>
       </c>
-      <c r="E40" t="s">
-        <v>110</v>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/games.xlsx
+++ b/Questions/games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC5DA71-8BF2-B34B-A2A5-84791694193F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1536BE8-EFC3-994F-B040-96C3E6458DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3100" windowWidth="19200" windowHeight="14900" xr2:uid="{2A51758C-EC9E-5E46-AA9E-8150C0DFF927}"/>
+    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{2A51758C-EC9E-5E46-AA9E-8150C0DFF927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,9 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a9c0tte-gFI</t>
-  </si>
-  <si>
     <t>아이돌마스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,9 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2JYnCidm11o</t>
-  </si>
-  <si>
     <t>철권7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,6 +623,38 @@
   </si>
   <si>
     <t>9QfPDmzpC2Q</t>
+  </si>
+  <si>
+    <t>마크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yOSTgMPH1uc</t>
+  </si>
+  <si>
+    <t>에이펙스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xq0joZ24D9Y</t>
+  </si>
+  <si>
+    <t>에펙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KmMiqkH8Tfw</t>
+  </si>
+  <si>
+    <t>드래곤퀘스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드퀘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kxp5dby4hPM</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938331E-B2C5-F84A-A762-83B1B1DD2C03}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1031,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1181,10 +1207,10 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
         <v>105</v>
-      </c>
-      <c r="E11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1305,16 +1331,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>77</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1322,7 +1348,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1339,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1356,7 +1382,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1373,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1390,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1424,16 +1450,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1441,7 +1467,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1450,7 +1476,7 @@
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1458,7 +1484,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1475,7 +1501,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1489,16 +1515,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
         <v>88</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>89</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1506,7 +1532,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1520,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1534,7 +1560,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1551,7 +1577,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1568,7 +1594,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1585,16 +1611,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
         <v>115</v>
-      </c>
-      <c r="E36" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1630,16 +1656,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
         <v>98</v>
-      </c>
-      <c r="E39" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1647,16 +1673,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
         <v>102</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>103</v>
-      </c>
-      <c r="E40" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1664,16 +1690,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1681,13 +1707,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1695,13 +1721,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1709,13 +1738,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44">
         <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1723,13 +1752,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C45">
         <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1737,16 +1766,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1754,16 +1783,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C47">
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1771,16 +1800,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1788,13 +1817,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1802,16 +1831,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1819,13 +1848,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1833,16 +1862,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1850,16 +1879,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C53">
         <v>16</v>
       </c>
       <c r="D53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" t="s">
         <v>135</v>
-      </c>
-      <c r="E53" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1867,13 +1896,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C54">
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1881,13 +1910,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1895,16 +1924,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1912,13 +1941,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C57">
         <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1926,13 +1955,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1940,16 +1969,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1957,13 +1986,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1971,13 +2000,47 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/games.xlsx
+++ b/Questions/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1536BE8-EFC3-994F-B040-96C3E6458DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEF177C-CFB0-5D45-BAF3-F169971B1625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{2A51758C-EC9E-5E46-AA9E-8150C0DFF927}"/>
   </bookViews>
@@ -564,10 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IJiHDmyhE1A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사이퍼즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,6 +651,9 @@
   </si>
   <si>
     <t>Kxp5dby4hPM</t>
+  </si>
+  <si>
+    <t>8vsezgP8rjs</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938331E-B2C5-F84A-A762-83B1B1DD2C03}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1331,7 +1330,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1730,7 +1729,7 @@
         <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1831,7 +1830,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1896,7 +1895,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -1910,13 +1909,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1924,16 +1923,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
         <v>147</v>
-      </c>
-      <c r="E56" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1941,13 +1940,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57">
         <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1955,13 +1954,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1969,16 +1968,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1986,13 +1985,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2000,13 +1999,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2014,16 +2013,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" t="s">
         <v>164</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2031,16 +2030,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C63">
         <v>30</v>
       </c>
       <c r="D63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" t="s">
         <v>167</v>
-      </c>
-      <c r="E63" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/games.xlsx
+++ b/Questions/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEF177C-CFB0-5D45-BAF3-F169971B1625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E846FB6E-59D3-AB44-BBA5-01546F7A4C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{2A51758C-EC9E-5E46-AA9E-8150C0DFF927}"/>
   </bookViews>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>젤다의전설 젤다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파이널판타지14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,6 +650,10 @@
   </si>
   <si>
     <t>8vsezgP8rjs</t>
+  </si>
+  <si>
+    <t>젤다의전설 젤다 야숨 야생의숨결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938331E-B2C5-F84A-A762-83B1B1DD2C03}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1036,7 +1036,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -1183,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
         <v>104</v>
-      </c>
-      <c r="E11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1217,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>69</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1248,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16">
         <v>61</v>
@@ -1296,7 +1296,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18">
         <v>61</v>
@@ -1330,16 +1330,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
         <v>77</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1347,7 +1347,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1381,16 +1381,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
         <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1398,16 +1398,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
         <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1415,16 +1415,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
         <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1432,16 +1432,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
         <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1449,16 +1449,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
         <v>91</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1466,16 +1466,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1483,16 +1483,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
         <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1500,13 +1500,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1514,16 +1514,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
         <v>87</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>88</v>
-      </c>
-      <c r="E30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1531,13 +1531,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1545,13 +1545,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1559,16 +1559,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
         <v>47</v>
-      </c>
-      <c r="E33" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1576,16 +1576,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
         <v>49</v>
-      </c>
-      <c r="E34" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1593,16 +1593,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
         <v>51</v>
-      </c>
-      <c r="E35" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1610,16 +1610,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
         <v>114</v>
-      </c>
-      <c r="E36" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1641,13 +1641,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
         <v>67</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1655,16 +1655,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
         <v>97</v>
-      </c>
-      <c r="E39" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1672,16 +1672,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
         <v>101</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>102</v>
-      </c>
-      <c r="E40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1689,16 +1689,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1706,13 +1706,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1720,16 +1720,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1737,13 +1737,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44">
         <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1751,13 +1751,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45">
         <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1765,16 +1765,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1782,16 +1782,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47">
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1799,16 +1799,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1816,13 +1816,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1847,13 +1847,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1861,16 +1861,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1878,16 +1878,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1895,13 +1895,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54">
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1909,13 +1909,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1923,16 +1923,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" t="s">
         <v>146</v>
-      </c>
-      <c r="E56" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1940,13 +1940,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57">
         <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1954,13 +1954,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1985,13 +1985,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1999,13 +1999,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" t="s">
         <v>163</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>162</v>
-      </c>
-      <c r="E62" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63">
         <v>30</v>
       </c>
       <c r="D63" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" t="s">
         <v>166</v>
-      </c>
-      <c r="E63" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/games.xlsx
+++ b/Questions/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E846FB6E-59D3-AB44-BBA5-01546F7A4C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51856DC-2D6F-0444-8F8C-363428429BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{2A51758C-EC9E-5E46-AA9E-8150C0DFF927}"/>
   </bookViews>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938331E-B2C5-F84A-A762-83B1B1DD2C03}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/Questions/games.xlsx
+++ b/Questions/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51856DC-2D6F-0444-8F8C-363428429BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4796D8E4-1F4D-4940-B127-0FEE5A0045A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{2A51758C-EC9E-5E46-AA9E-8150C0DFF927}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A51758C-EC9E-5E46-AA9E-8150C0DFF927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,9 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cgiuY-SfraU</t>
-  </si>
-  <si>
     <t>배틀그라운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,6 +651,9 @@
   <si>
     <t>젤다의전설 젤다 야숨 야생의숨결</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8jYkU2Hm_8</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938331E-B2C5-F84A-A762-83B1B1DD2C03}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1330,7 +1330,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1729,7 +1729,7 @@
         <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1830,7 +1830,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -1909,7 +1909,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1923,16 +1923,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" t="s">
         <v>145</v>
-      </c>
-      <c r="E56" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1940,13 +1940,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57">
         <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1954,13 +1954,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1985,13 +1985,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1999,13 +1999,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" t="s">
         <v>162</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>161</v>
-      </c>
-      <c r="E62" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63">
         <v>30</v>
       </c>
       <c r="D63" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" t="s">
         <v>165</v>
-      </c>
-      <c r="E63" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
